--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2866986.55222755</v>
+        <v>2864609.925280186</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>234.1055905923177</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -677,7 +677,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>120.2145230749709</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>39.15797524740153</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>144.8586974472234</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>115.6532283794933</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>179.4336257791592</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>10.24924571897656</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>191.7560059845285</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>41.00930247648681</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>22.73100049029356</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.16463037378315</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>120.3332554667402</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>75.08886905994719</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,10 +1819,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>251.2117044543522</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>141.6930519056953</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217656</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.696957004698</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2228.894479532451</v>
+        <v>1136.221880202098</v>
       </c>
       <c r="C2" t="n">
-        <v>1992.424186004858</v>
+        <v>1136.221880202098</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4343,37 +4343,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.894479532451</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.894479532451</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>2228.894479532451</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>2228.894479532451</v>
+        <v>1522.82172026622</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>790.776498401436</v>
+        <v>662.3527266874014</v>
       </c>
       <c r="M3" t="n">
-        <v>1154.038517360656</v>
+        <v>1025.614745646621</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.323645957601</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.50262973664</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568937</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>535.7199774115529</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074498</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074498</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074498</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W4" t="n">
-        <v>1636.446120074498</v>
+        <v>535.7199774115529</v>
       </c>
       <c r="X4" t="n">
-        <v>1490.124203461141</v>
+        <v>535.7199774115529</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>535.7199774115529</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1990.953909778728</v>
+        <v>864.8611267254496</v>
       </c>
       <c r="C5" t="n">
-        <v>1621.991392838317</v>
+        <v>864.8611267254496</v>
       </c>
       <c r="D5" t="n">
-        <v>1263.725694231566</v>
+        <v>864.8611267254496</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>479.0728741272054</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>472.1273733780019</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="X5" t="n">
-        <v>2381.09324175454</v>
+        <v>1251.460966789571</v>
       </c>
       <c r="Y5" t="n">
-        <v>1990.953909778728</v>
+        <v>1251.460966789571</v>
       </c>
     </row>
     <row r="6">
@@ -4641,22 +4641,22 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341571</v>
+        <v>956.2844025217535</v>
       </c>
       <c r="N6" t="n">
-        <v>1614.486495938516</v>
+        <v>1565.661695681273</v>
       </c>
       <c r="O6" t="n">
         <v>2199.840679460312</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>494.0245808582381</v>
+        <v>359.6292930162437</v>
       </c>
       <c r="C7" t="n">
-        <v>325.0883979303312</v>
+        <v>359.6292930162437</v>
       </c>
       <c r="D7" t="n">
-        <v>325.0883979303312</v>
+        <v>209.5126536039079</v>
       </c>
       <c r="E7" t="n">
-        <v>325.0883979303312</v>
+        <v>61.5995600215148</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>61.5995600215148</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>61.5995600215148</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>61.5995600215148</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4744,31 +4744,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U7" t="n">
-        <v>1219.774703931325</v>
+        <v>1244.744376093918</v>
       </c>
       <c r="V7" t="n">
-        <v>965.0902157254384</v>
+        <v>990.0598878880309</v>
       </c>
       <c r="W7" t="n">
-        <v>675.6730456884778</v>
+        <v>990.0598878880309</v>
       </c>
       <c r="X7" t="n">
-        <v>675.6730456884778</v>
+        <v>762.0703369900135</v>
       </c>
       <c r="Y7" t="n">
-        <v>675.6730456884778</v>
+        <v>541.2777578464834</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1224.085859695932</v>
+        <v>904.8820361188245</v>
       </c>
       <c r="C8" t="n">
-        <v>855.1233427555203</v>
+        <v>535.9195191784129</v>
       </c>
       <c r="D8" t="n">
-        <v>496.8576441487698</v>
+        <v>177.6538205716624</v>
       </c>
       <c r="E8" t="n">
-        <v>496.8576441487698</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>489.9121433995663</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G8" t="n">
-        <v>74.20739312385518</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4820,34 +4820,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.59368700598</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W8" t="n">
-        <v>2000.825031735865</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="X8" t="n">
-        <v>2000.825031735865</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="Y8" t="n">
-        <v>1610.685699760054</v>
+        <v>1291.481876182946</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1614.486495938517</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1946.556931114679</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.2467865680031</v>
+        <v>101.9181303799053</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2467865680031</v>
+        <v>101.9181303799053</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>101.9181303799053</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>101.9181303799053</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>101.9181303799053</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,31 +4981,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1514.8973771788</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1225.779039682638</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V10" t="n">
-        <v>971.0945514767509</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="W10" t="n">
-        <v>681.6773814397902</v>
+        <v>732.3487252516925</v>
       </c>
       <c r="X10" t="n">
-        <v>453.6878305417729</v>
+        <v>504.3591743536751</v>
       </c>
       <c r="Y10" t="n">
-        <v>232.8952513982428</v>
+        <v>283.566595210145</v>
       </c>
     </row>
     <row r="11">
@@ -5024,22 +5024,22 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5072,16 +5072,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,25 +5115,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5258,43 +5258,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1723.711884091971</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5969,40 +5969,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6130,13 +6130,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6464,7 +6464,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6713,37 +6713,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,13 +7160,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7175,46 +7175,46 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718716</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7783,22 +7783,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8061,25 +8061,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>199.7516311504068</v>
+        <v>70.03064962107931</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O3" t="n">
-        <v>305.160150103916</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8301,13 +8301,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>224.3355197601762</v>
       </c>
       <c r="O6" t="n">
-        <v>255.8421700460948</v>
+        <v>305.160150103916</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179985</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>255.8421700460937</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>92.15795203868065</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>34.97276993489191</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>6.9224211125171</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>112.4047682534902</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409392984</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.988328391</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>753319.9883283911</v>
+        <v>753319.9883283913</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>753319.9883283913</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>753319.9883283911</v>
+        <v>753319.9883283912</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380341</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="F2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
         <v>665895.9447442549</v>
-      </c>
-      <c r="G2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.944744255</v>
       </c>
       <c r="L2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="N2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.10570385408937e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.139184627798386e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719677</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7507.3684617197</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7507.3684617197</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7507.368461719731</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7507.368461719649</v>
+      </c>
+      <c r="O4" t="n">
         <v>7507.36846171969</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7507.368461719675</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7507.368461719651</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7507.368461719677</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7507.368461719698</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7507.368461719676</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7507.368461719668</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7507.36846171968</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.7724398447</v>
+      </c>
+      <c r="C5" t="n">
         <v>92937.77243984473</v>
       </c>
-      <c r="C5" t="n">
-        <v>92937.7724398447</v>
-      </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-663443.959424475</v>
+        <v>-663443.9594244746</v>
       </c>
       <c r="C6" t="n">
-        <v>451307.8241514448</v>
+        <v>451307.8241514447</v>
       </c>
       <c r="D6" t="n">
-        <v>451307.8241514444</v>
+        <v>451307.8241514447</v>
       </c>
       <c r="E6" t="n">
-        <v>49780.60483408217</v>
+        <v>49745.86690864715</v>
       </c>
       <c r="F6" t="n">
-        <v>557266.0464586281</v>
+        <v>557231.3085331926</v>
       </c>
       <c r="G6" t="n">
-        <v>557266.0464586281</v>
+        <v>557231.3085331926</v>
       </c>
       <c r="H6" t="n">
-        <v>557266.0464586283</v>
+        <v>557231.308533193</v>
       </c>
       <c r="I6" t="n">
-        <v>557266.0464586283</v>
+        <v>557231.3085331928</v>
       </c>
       <c r="J6" t="n">
-        <v>389660.8686486458</v>
+        <v>389626.1307232098</v>
       </c>
       <c r="K6" t="n">
-        <v>557266.0464586283</v>
+        <v>557231.3085331925</v>
       </c>
       <c r="L6" t="n">
-        <v>557266.0464586283</v>
+        <v>557231.3085331926</v>
       </c>
       <c r="M6" t="n">
-        <v>424658.7527297013</v>
+        <v>424624.0148042657</v>
       </c>
       <c r="N6" t="n">
-        <v>557266.046458628</v>
+        <v>557231.308533192</v>
       </c>
       <c r="O6" t="n">
-        <v>557266.0464586279</v>
+        <v>557231.3085331927</v>
       </c>
       <c r="P6" t="n">
-        <v>557266.0464586281</v>
+        <v>557231.3085331924</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175394</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175392</v>
-      </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
         <v>640.5848321000391</v>
       </c>
-      <c r="C4" t="n">
-        <v>640.5848321000389</v>
-      </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>131.1673011786899</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>266.0234155810826</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>128.0888458512263</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>80.85095794181376</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>295.8944743934607</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>190.2974748993098</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>94.547349484924</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>94.47114813667216</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>340.921067595775</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>278.2875520721118</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>116.141969671021</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>100.4154405304718</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,25 +31203,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,34 +31276,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31312,13 +31312,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,34 +31355,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31391,10 +31391,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31440,19 +31440,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,34 +31513,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31549,13 +31549,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,34 +31592,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31628,10 +31628,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31677,19 +31677,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,28 +31835,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,7 +32087,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,10 +32096,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,16 +32552,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,16 +33497,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>165.2255134509767</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33664,7 +33664,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118732</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34205,22 +34205,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -34457,7 +34457,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>497.4319917882571</v>
+        <v>367.7110102589294</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000391</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34936,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>615.5326193530502</v>
       </c>
       <c r="O6" t="n">
-        <v>591.2668520422178</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>505.521699169626</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924728</v>
@@ -35483,28 +35483,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,7 +35735,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,10 +35744,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>31.25110603664647</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>285.360777931999</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
